--- a/quantification/mouseTcell/mouseT_RCB_all.xlsx
+++ b/quantification/mouseTcell/mouseT_RCB_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lclement/Downloads/heart/caseControl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lclement/Downloads/pda-data/quantification/mouseTcell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2894DED0-A6FA-F949-90B2-4B5E55D02CB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88E64E6-6F32-D64D-A3A9-442CFB64D5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="4440" windowWidth="14920" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="4400" windowWidth="14920" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,53 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>run</t>
   </si>
   <si>
-    <t>Tconv.M11_R1_inj1</t>
-  </si>
-  <si>
-    <t>Tconv.M11_R2_inj1</t>
-  </si>
-  <si>
-    <t>Tconv.M12_1</t>
-  </si>
-  <si>
-    <t>Tconv.M12_2</t>
-  </si>
-  <si>
-    <t>Tconv.M12_3</t>
-  </si>
-  <si>
-    <t>Tconv.M5_inj1</t>
-  </si>
-  <si>
-    <t>Tconv.M6_inj1</t>
-  </si>
-  <si>
-    <t>Treg.M11_R1_inj1</t>
-  </si>
-  <si>
-    <t>Treg.M11_R2_inj1</t>
-  </si>
-  <si>
-    <t>Treg.M12_1</t>
-  </si>
-  <si>
-    <t>Treg.M12_2</t>
-  </si>
-  <si>
-    <t>Treg.M12_3</t>
-  </si>
-  <si>
-    <t>Treg.M5_inj1</t>
-  </si>
-  <si>
-    <t>Treg.M6_inj1</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -77,6 +35,69 @@
   </si>
   <si>
     <t>animal</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M11_R1_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M11_R2_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M12_1</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M12_2</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M12_3</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M5_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Tconv.M6_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M11_R1_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M11_R2_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M12_1</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M12_2</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M12_3</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M5_inj1</t>
+  </si>
+  <si>
+    <t>Intensity.Treg.M6_inj1</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>m7</t>
   </si>
 </sst>
 </file>
@@ -417,170 +438,173 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
         <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
